--- a/macroeconomic_var.xlsx
+++ b/macroeconomic_var.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>Constant</t>
   </si>
@@ -79,9 +79,6 @@
     <t xml:space="preserve">        THE OVERNIGHT CENTRAL BANK RATE</t>
   </si>
   <si>
-    <t>Fecha</t>
-  </si>
-  <si>
     <t>CPI</t>
   </si>
   <si>
@@ -121,627 +118,6 @@
     <t>Cumulative R&amp;R Shock</t>
   </si>
   <si>
-    <t>Ene02</t>
-  </si>
-  <si>
-    <t>Feb02</t>
-  </si>
-  <si>
-    <t>Mar02</t>
-  </si>
-  <si>
-    <t>Abr02</t>
-  </si>
-  <si>
-    <t>May02</t>
-  </si>
-  <si>
-    <t>Jun02</t>
-  </si>
-  <si>
-    <t>Jul02</t>
-  </si>
-  <si>
-    <t>Ago02</t>
-  </si>
-  <si>
-    <t>Sep02</t>
-  </si>
-  <si>
-    <t>Oct02</t>
-  </si>
-  <si>
-    <t>Nov02</t>
-  </si>
-  <si>
-    <t>Dic02</t>
-  </si>
-  <si>
-    <t>Ene03</t>
-  </si>
-  <si>
-    <t>Feb03</t>
-  </si>
-  <si>
-    <t>Mar03</t>
-  </si>
-  <si>
-    <t>Abr03</t>
-  </si>
-  <si>
-    <t>May03</t>
-  </si>
-  <si>
-    <t>Jun03</t>
-  </si>
-  <si>
-    <t>Jul03</t>
-  </si>
-  <si>
-    <t>Ago03</t>
-  </si>
-  <si>
-    <t>Sep03</t>
-  </si>
-  <si>
-    <t>Oct03</t>
-  </si>
-  <si>
-    <t>Nov03</t>
-  </si>
-  <si>
-    <t>Dic03</t>
-  </si>
-  <si>
-    <t>Ene04</t>
-  </si>
-  <si>
-    <t>Feb04</t>
-  </si>
-  <si>
-    <t>Mar04</t>
-  </si>
-  <si>
-    <t>Abr04</t>
-  </si>
-  <si>
-    <t>May04</t>
-  </si>
-  <si>
-    <t>Jun04</t>
-  </si>
-  <si>
-    <t>Jul04</t>
-  </si>
-  <si>
-    <t>Ago04</t>
-  </si>
-  <si>
-    <t>Sep04</t>
-  </si>
-  <si>
-    <t>Oct04</t>
-  </si>
-  <si>
-    <t>Nov04</t>
-  </si>
-  <si>
-    <t>Dic04</t>
-  </si>
-  <si>
-    <t>Ene05</t>
-  </si>
-  <si>
-    <t>Feb05</t>
-  </si>
-  <si>
-    <t>Mar05</t>
-  </si>
-  <si>
-    <t>Abr05</t>
-  </si>
-  <si>
-    <t>May05</t>
-  </si>
-  <si>
-    <t>Jun05</t>
-  </si>
-  <si>
-    <t>Jul05</t>
-  </si>
-  <si>
-    <t>Ago05</t>
-  </si>
-  <si>
-    <t>Sep05</t>
-  </si>
-  <si>
-    <t>Oct05</t>
-  </si>
-  <si>
-    <t>Nov05</t>
-  </si>
-  <si>
-    <t>Dic05</t>
-  </si>
-  <si>
-    <t>Ene06</t>
-  </si>
-  <si>
-    <t>Feb06</t>
-  </si>
-  <si>
-    <t>Mar06</t>
-  </si>
-  <si>
-    <t>Abr06</t>
-  </si>
-  <si>
-    <t>May06</t>
-  </si>
-  <si>
-    <t>Jun06</t>
-  </si>
-  <si>
-    <t>Jul06</t>
-  </si>
-  <si>
-    <t>Ago06</t>
-  </si>
-  <si>
-    <t>Sep06</t>
-  </si>
-  <si>
-    <t>Oct06</t>
-  </si>
-  <si>
-    <t>Nov06</t>
-  </si>
-  <si>
-    <t>Dic06</t>
-  </si>
-  <si>
-    <t>Ene07</t>
-  </si>
-  <si>
-    <t>Feb07</t>
-  </si>
-  <si>
-    <t>Mar07</t>
-  </si>
-  <si>
-    <t>Abr07</t>
-  </si>
-  <si>
-    <t>May07</t>
-  </si>
-  <si>
-    <t>Jun07</t>
-  </si>
-  <si>
-    <t>Jul07</t>
-  </si>
-  <si>
-    <t>Ago07</t>
-  </si>
-  <si>
-    <t>Sep07</t>
-  </si>
-  <si>
-    <t>Oct07</t>
-  </si>
-  <si>
-    <t>Nov07</t>
-  </si>
-  <si>
-    <t>Dic07</t>
-  </si>
-  <si>
-    <t>Ene08</t>
-  </si>
-  <si>
-    <t>Feb08</t>
-  </si>
-  <si>
-    <t>Mar08</t>
-  </si>
-  <si>
-    <t>Abr08</t>
-  </si>
-  <si>
-    <t>May08</t>
-  </si>
-  <si>
-    <t>Jun08</t>
-  </si>
-  <si>
-    <t>Jul08</t>
-  </si>
-  <si>
-    <t>Ago08</t>
-  </si>
-  <si>
-    <t>Sep08</t>
-  </si>
-  <si>
-    <t>Oct08</t>
-  </si>
-  <si>
-    <t>Nov08</t>
-  </si>
-  <si>
-    <t>Dic08</t>
-  </si>
-  <si>
-    <t>Ene09</t>
-  </si>
-  <si>
-    <t>Feb09</t>
-  </si>
-  <si>
-    <t>Mar09</t>
-  </si>
-  <si>
-    <t>Abr09</t>
-  </si>
-  <si>
-    <t>May09</t>
-  </si>
-  <si>
-    <t>Jun09</t>
-  </si>
-  <si>
-    <t>Jul09</t>
-  </si>
-  <si>
-    <t>Ago09</t>
-  </si>
-  <si>
-    <t>Sep09</t>
-  </si>
-  <si>
-    <t>Oct09</t>
-  </si>
-  <si>
-    <t>Nov09</t>
-  </si>
-  <si>
-    <t>Dic09</t>
-  </si>
-  <si>
-    <t>Ene10</t>
-  </si>
-  <si>
-    <t>Feb10</t>
-  </si>
-  <si>
-    <t>Mar10</t>
-  </si>
-  <si>
-    <t>Abr10</t>
-  </si>
-  <si>
-    <t>May10</t>
-  </si>
-  <si>
-    <t>Jun10</t>
-  </si>
-  <si>
-    <t>Jul10</t>
-  </si>
-  <si>
-    <t>Ago10</t>
-  </si>
-  <si>
-    <t>Sep10</t>
-  </si>
-  <si>
-    <t>Oct10</t>
-  </si>
-  <si>
-    <t>Nov10</t>
-  </si>
-  <si>
-    <t>Dic10</t>
-  </si>
-  <si>
-    <t>Ene11</t>
-  </si>
-  <si>
-    <t>Feb11</t>
-  </si>
-  <si>
-    <t>Mar11</t>
-  </si>
-  <si>
-    <t>Abr11</t>
-  </si>
-  <si>
-    <t>May11</t>
-  </si>
-  <si>
-    <t>Jun11</t>
-  </si>
-  <si>
-    <t>Jul11</t>
-  </si>
-  <si>
-    <t>Ago11</t>
-  </si>
-  <si>
-    <t>Sep11</t>
-  </si>
-  <si>
-    <t>Oct11</t>
-  </si>
-  <si>
-    <t>Nov11</t>
-  </si>
-  <si>
-    <t>Dic11</t>
-  </si>
-  <si>
-    <t>Ene12</t>
-  </si>
-  <si>
-    <t>Feb12</t>
-  </si>
-  <si>
-    <t>Mar12</t>
-  </si>
-  <si>
-    <t>Abr12</t>
-  </si>
-  <si>
-    <t>May12</t>
-  </si>
-  <si>
-    <t>Jun12</t>
-  </si>
-  <si>
-    <t>Jul12</t>
-  </si>
-  <si>
-    <t>Ago12</t>
-  </si>
-  <si>
-    <t>Sep12</t>
-  </si>
-  <si>
-    <t>Oct12</t>
-  </si>
-  <si>
-    <t>Nov12</t>
-  </si>
-  <si>
-    <t>Dic12</t>
-  </si>
-  <si>
-    <t>Ene13</t>
-  </si>
-  <si>
-    <t>Feb13</t>
-  </si>
-  <si>
-    <t>Mar13</t>
-  </si>
-  <si>
-    <t>Abr13</t>
-  </si>
-  <si>
-    <t>May13</t>
-  </si>
-  <si>
-    <t>Jun13</t>
-  </si>
-  <si>
-    <t>Jul13</t>
-  </si>
-  <si>
-    <t>Ago13</t>
-  </si>
-  <si>
-    <t>Sep13</t>
-  </si>
-  <si>
-    <t>Oct13</t>
-  </si>
-  <si>
-    <t>Nov13</t>
-  </si>
-  <si>
-    <t>Dic13</t>
-  </si>
-  <si>
-    <t>Ene14</t>
-  </si>
-  <si>
-    <t>Feb14</t>
-  </si>
-  <si>
-    <t>Mar14</t>
-  </si>
-  <si>
-    <t>Abr14</t>
-  </si>
-  <si>
-    <t>May14</t>
-  </si>
-  <si>
-    <t>Jun14</t>
-  </si>
-  <si>
-    <t>Jul14</t>
-  </si>
-  <si>
-    <t>Ago14</t>
-  </si>
-  <si>
-    <t>Sep14</t>
-  </si>
-  <si>
-    <t>Oct14</t>
-  </si>
-  <si>
-    <t>Nov14</t>
-  </si>
-  <si>
-    <t>Dic14</t>
-  </si>
-  <si>
-    <t>Ene15</t>
-  </si>
-  <si>
-    <t>Feb15</t>
-  </si>
-  <si>
-    <t>Mar15</t>
-  </si>
-  <si>
-    <t>Abr15</t>
-  </si>
-  <si>
-    <t>May15</t>
-  </si>
-  <si>
-    <t>Jun15</t>
-  </si>
-  <si>
-    <t>Jul15</t>
-  </si>
-  <si>
-    <t>Ago15</t>
-  </si>
-  <si>
-    <t>Sep15</t>
-  </si>
-  <si>
-    <t>Oct15</t>
-  </si>
-  <si>
-    <t>Nov15</t>
-  </si>
-  <si>
-    <t>Dic15</t>
-  </si>
-  <si>
-    <t>Ene16</t>
-  </si>
-  <si>
-    <t>Feb16</t>
-  </si>
-  <si>
-    <t>Mar16</t>
-  </si>
-  <si>
-    <t>Abr16</t>
-  </si>
-  <si>
-    <t>May16</t>
-  </si>
-  <si>
-    <t>Jun16</t>
-  </si>
-  <si>
-    <t>Jul16</t>
-  </si>
-  <si>
-    <t>Ago16</t>
-  </si>
-  <si>
-    <t>Sep16</t>
-  </si>
-  <si>
-    <t>Oct16</t>
-  </si>
-  <si>
-    <t>Nov16</t>
-  </si>
-  <si>
-    <t>Dic16</t>
-  </si>
-  <si>
-    <t>Ene17</t>
-  </si>
-  <si>
-    <t>Feb17</t>
-  </si>
-  <si>
-    <t>Mar17</t>
-  </si>
-  <si>
-    <t>Abr17</t>
-  </si>
-  <si>
-    <t>May17</t>
-  </si>
-  <si>
-    <t>Jun17</t>
-  </si>
-  <si>
-    <t>Jul17</t>
-  </si>
-  <si>
-    <t>Ago17</t>
-  </si>
-  <si>
-    <t>Sep17</t>
-  </si>
-  <si>
-    <t>Oct17</t>
-  </si>
-  <si>
-    <t>Nov17</t>
-  </si>
-  <si>
-    <t>Dic17</t>
-  </si>
-  <si>
-    <t>Ene18</t>
-  </si>
-  <si>
-    <t>Feb18</t>
-  </si>
-  <si>
-    <t>Mar18</t>
-  </si>
-  <si>
-    <t>Abr18</t>
-  </si>
-  <si>
-    <t>May18</t>
-  </si>
-  <si>
-    <t>Jun18</t>
-  </si>
-  <si>
-    <t>Jul18</t>
-  </si>
-  <si>
-    <t>Ago18</t>
-  </si>
-  <si>
-    <t>Sep18</t>
-  </si>
-  <si>
-    <t>Oct18</t>
-  </si>
-  <si>
-    <t>Nov18</t>
-  </si>
-  <si>
-    <t>Dic18</t>
-  </si>
-  <si>
-    <t>Ene19</t>
-  </si>
-  <si>
-    <t>Feb19</t>
-  </si>
-  <si>
-    <t>Mar19</t>
-  </si>
-  <si>
     <t>IMF_CPI</t>
   </si>
   <si>
@@ -770,6 +146,9 @@
   </si>
   <si>
     <t>d_lnM1</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -862,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -903,6 +282,8 @@
     <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1639,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X210"/>
+  <dimension ref="A1:X208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3:V210"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="C196" sqref="C196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,82 +1035,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="13" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>31</v>
+      <c r="A2" s="19">
+        <v>37257</v>
       </c>
       <c r="B2" s="13">
         <v>81.101951</v>
@@ -1783,8 +1164,8 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>32</v>
+      <c r="A3" s="19">
+        <v>37288</v>
       </c>
       <c r="B3" s="13">
         <v>81.070059999999998</v>
@@ -1854,8 +1235,8 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>33</v>
+      <c r="A4" s="19">
+        <v>37316</v>
       </c>
       <c r="B4" s="13">
         <v>81.506551999999999</v>
@@ -1925,8 +1306,8 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>34</v>
+      <c r="A5" s="19">
+        <v>37347</v>
       </c>
       <c r="B5" s="13">
         <v>82.100994</v>
@@ -1996,8 +1377,8 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>35</v>
+      <c r="A6" s="19">
+        <v>37377</v>
       </c>
       <c r="B6" s="13">
         <v>82.214967000000001</v>
@@ -2069,8 +1450,8 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>36</v>
+      <c r="A7" s="19">
+        <v>37408</v>
       </c>
       <c r="B7" s="13">
         <v>82.028109000000001</v>
@@ -2142,8 +1523,8 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>37</v>
+      <c r="A8" s="19">
+        <v>37438</v>
       </c>
       <c r="B8" s="13">
         <v>82.056252000000001</v>
@@ -2215,8 +1596,8 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>38</v>
+      <c r="A9" s="19">
+        <v>37469</v>
       </c>
       <c r="B9" s="13">
         <v>82.139041000000006</v>
@@ -2288,8 +1669,8 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>39</v>
+      <c r="A10" s="19">
+        <v>37500</v>
       </c>
       <c r="B10" s="13">
         <v>82.528013999999999</v>
@@ -2361,8 +1742,8 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>40</v>
+      <c r="A11" s="19">
+        <v>37530</v>
       </c>
       <c r="B11" s="13">
         <v>83.120534000000006</v>
@@ -2434,8 +1815,8 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>41</v>
+      <c r="A12" s="19">
+        <v>37561</v>
       </c>
       <c r="B12" s="13">
         <v>82.788573999999997</v>
@@ -2507,8 +1888,8 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>42</v>
+      <c r="A13" s="19">
+        <v>37591</v>
       </c>
       <c r="B13" s="13">
         <v>82.761628999999999</v>
@@ -2580,8 +1961,8 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>43</v>
+      <c r="A14" s="19">
+        <v>37622</v>
       </c>
       <c r="B14" s="13">
         <v>82.953156000000007</v>
@@ -2657,8 +2038,8 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>44</v>
+      <c r="A15" s="19">
+        <v>37653</v>
       </c>
       <c r="B15" s="13">
         <v>83.342061000000001</v>
@@ -2738,8 +2119,8 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>45</v>
+      <c r="A16" s="19">
+        <v>37681</v>
       </c>
       <c r="B16" s="13">
         <v>84.273641999999995</v>
@@ -2819,8 +2200,8 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>46</v>
+      <c r="A17" s="19">
+        <v>37712</v>
       </c>
       <c r="B17" s="13">
         <v>84.230783000000002</v>
@@ -2900,8 +2281,8 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>47</v>
+      <c r="A18" s="19">
+        <v>37742</v>
       </c>
       <c r="B18" s="13">
         <v>84.203807999999995</v>
@@ -2981,8 +2362,8 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>48</v>
+      <c r="A19" s="19">
+        <v>37773</v>
       </c>
       <c r="B19" s="13">
         <v>83.805414999999996</v>
@@ -3062,8 +2443,8 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>49</v>
+      <c r="A20" s="19">
+        <v>37803</v>
       </c>
       <c r="B20" s="13">
         <v>83.680363</v>
@@ -3143,8 +2524,8 @@
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>50</v>
+      <c r="A21" s="19">
+        <v>37834</v>
       </c>
       <c r="B21" s="13">
         <v>83.691623000000007</v>
@@ -3224,8 +2605,8 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>51</v>
+      <c r="A22" s="19">
+        <v>37865</v>
       </c>
       <c r="B22" s="13">
         <v>84.159122999999994</v>
@@ -3305,8 +2686,8 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>52</v>
+      <c r="A23" s="19">
+        <v>37895</v>
       </c>
       <c r="B23" s="13">
         <v>84.200388000000004</v>
@@ -3386,8 +2767,8 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>53</v>
+      <c r="A24" s="19">
+        <v>37926</v>
       </c>
       <c r="B24" s="13">
         <v>84.341578999999996</v>
@@ -3467,8 +2848,8 @@
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>54</v>
+      <c r="A25" s="19">
+        <v>37956</v>
       </c>
       <c r="B25" s="13">
         <v>84.817223999999996</v>
@@ -3548,8 +2929,8 @@
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>55</v>
+      <c r="A26" s="19">
+        <v>37987</v>
       </c>
       <c r="B26" s="13">
         <v>85.273071999999999</v>
@@ -3629,8 +3010,8 @@
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>56</v>
+      <c r="A27" s="19">
+        <v>38018</v>
       </c>
       <c r="B27" s="13">
         <v>86.199209999999994</v>
@@ -3710,8 +3091,8 @@
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>57</v>
+      <c r="A28" s="19">
+        <v>38047</v>
       </c>
       <c r="B28" s="13">
         <v>86.596113000000003</v>
@@ -3791,8 +3172,8 @@
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>58</v>
+      <c r="A29" s="19">
+        <v>38078</v>
       </c>
       <c r="B29" s="13">
         <v>86.576395000000005</v>
@@ -3872,8 +3253,8 @@
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>59</v>
+      <c r="A30" s="19">
+        <v>38108</v>
       </c>
       <c r="B30" s="13">
         <v>86.882740999999996</v>
@@ -3953,8 +3334,8 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>60</v>
+      <c r="A31" s="19">
+        <v>38139</v>
       </c>
       <c r="B31" s="13">
         <v>87.372591999999997</v>
@@ -4034,8 +3415,8 @@
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>61</v>
+      <c r="A32" s="19">
+        <v>38169</v>
       </c>
       <c r="B32" s="13">
         <v>87.541315999999995</v>
@@ -4115,8 +3496,8 @@
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>62</v>
+      <c r="A33" s="19">
+        <v>38200</v>
       </c>
       <c r="B33" s="13">
         <v>87.532964000000007</v>
@@ -4196,8 +3577,8 @@
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>63</v>
+      <c r="A34" s="19">
+        <v>38231</v>
       </c>
       <c r="B34" s="13">
         <v>87.547573</v>
@@ -4277,8 +3658,8 @@
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>64</v>
+      <c r="A35" s="19">
+        <v>38261</v>
       </c>
       <c r="B35" s="13">
         <v>87.526782999999995</v>
@@ -4358,8 +3739,8 @@
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>65</v>
+      <c r="A36" s="19">
+        <v>38292</v>
       </c>
       <c r="B36" s="13">
         <v>87.777991999999998</v>
@@ -4439,8 +3820,8 @@
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>66</v>
+      <c r="A37" s="19">
+        <v>38322</v>
       </c>
       <c r="B37" s="13">
         <v>87.769779999999997</v>
@@ -4520,8 +3901,8 @@
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>67</v>
+      <c r="A38" s="19">
+        <v>38353</v>
       </c>
       <c r="B38" s="13">
         <v>87.857680999999999</v>
@@ -4601,8 +3982,8 @@
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>68</v>
+      <c r="A39" s="19">
+        <v>38384</v>
       </c>
       <c r="B39" s="13">
         <v>87.651549000000003</v>
@@ -4682,8 +4063,8 @@
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>69</v>
+      <c r="A40" s="19">
+        <v>38412</v>
       </c>
       <c r="B40" s="13">
         <v>88.221456000000003</v>
@@ -4763,8 +4144,8 @@
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>70</v>
+      <c r="A41" s="19">
+        <v>38443</v>
       </c>
       <c r="B41" s="13">
         <v>88.326284000000001</v>
@@ -4844,8 +4225,8 @@
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>71</v>
+      <c r="A42" s="19">
+        <v>38473</v>
       </c>
       <c r="B42" s="13">
         <v>88.437866999999997</v>
@@ -4925,8 +4306,8 @@
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>72</v>
+      <c r="A43" s="19">
+        <v>38504</v>
       </c>
       <c r="B43" s="13">
         <v>88.671115</v>
@@ -5006,8 +4387,8 @@
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>73</v>
+      <c r="A44" s="19">
+        <v>38534</v>
       </c>
       <c r="B44" s="13">
         <v>88.763874999999999</v>
@@ -5087,8 +4468,8 @@
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>74</v>
+      <c r="A45" s="19">
+        <v>38565</v>
       </c>
       <c r="B45" s="13">
         <v>88.60445</v>
@@ -5168,8 +4549,8 @@
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>75</v>
+      <c r="A46" s="19">
+        <v>38596</v>
       </c>
       <c r="B46" s="13">
         <v>88.520915000000002</v>
@@ -5249,8 +4630,8 @@
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>76</v>
+      <c r="A47" s="19">
+        <v>38626</v>
       </c>
       <c r="B47" s="13">
         <v>88.649075999999994</v>
@@ -5330,8 +4711,8 @@
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>77</v>
+      <c r="A48" s="19">
+        <v>38657</v>
       </c>
       <c r="B48" s="13">
         <v>88.709396999999996</v>
@@ -5411,8 +4792,8 @@
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>78</v>
+      <c r="A49" s="19">
+        <v>38687</v>
       </c>
       <c r="B49" s="13">
         <v>89.081288999999998</v>
@@ -5492,8 +4873,8 @@
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>79</v>
+      <c r="A50" s="19">
+        <v>38718</v>
       </c>
       <c r="B50" s="13">
         <v>89.526347000000001</v>
@@ -5573,8 +4954,8 @@
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
-        <v>80</v>
+      <c r="A51" s="19">
+        <v>38749</v>
       </c>
       <c r="B51" s="13">
         <v>90.017200000000003</v>
@@ -5654,8 +5035,8 @@
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>81</v>
+      <c r="A52" s="19">
+        <v>38777</v>
       </c>
       <c r="B52" s="13">
         <v>90.428725</v>
@@ -5735,8 +5116,8 @@
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
-        <v>82</v>
+      <c r="A53" s="19">
+        <v>38808</v>
       </c>
       <c r="B53" s="13">
         <v>90.889917999999994</v>
@@ -5816,8 +5197,8 @@
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
-        <v>83</v>
+      <c r="A54" s="19">
+        <v>38838</v>
       </c>
       <c r="B54" s="13">
         <v>90.410062999999994</v>
@@ -5897,8 +5278,8 @@
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>84</v>
+      <c r="A55" s="19">
+        <v>38869</v>
       </c>
       <c r="B55" s="13">
         <v>90.290235999999993</v>
@@ -5978,8 +5359,8 @@
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
-        <v>85</v>
+      <c r="A56" s="19">
+        <v>38899</v>
       </c>
       <c r="B56" s="13">
         <v>90.136345000000006</v>
@@ -6059,8 +5440,8 @@
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
-        <v>86</v>
+      <c r="A57" s="19">
+        <v>38930</v>
       </c>
       <c r="B57" s="13">
         <v>90.261947000000006</v>
@@ -6140,8 +5521,8 @@
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
-        <v>87</v>
+      <c r="A58" s="19">
+        <v>38961</v>
       </c>
       <c r="B58" s="13">
         <v>90.286649999999995</v>
@@ -6221,8 +5602,8 @@
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
-        <v>88</v>
+      <c r="A59" s="19">
+        <v>38991</v>
       </c>
       <c r="B59" s="13">
         <v>90.326186000000007</v>
@@ -6302,8 +5683,8 @@
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
-        <v>89</v>
+      <c r="A60" s="19">
+        <v>39022</v>
       </c>
       <c r="B60" s="13">
         <v>90.071325999999999</v>
@@ -6383,8 +5764,8 @@
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
-        <v>90</v>
+      <c r="A61" s="19">
+        <v>39052</v>
       </c>
       <c r="B61" s="13">
         <v>90.094575000000006</v>
@@ -6464,8 +5845,8 @@
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
-        <v>91</v>
+      <c r="A62" s="19">
+        <v>39083</v>
       </c>
       <c r="B62" s="13">
         <v>90.103069000000005</v>
@@ -6545,8 +5926,8 @@
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
-        <v>92</v>
+      <c r="A63" s="19">
+        <v>39114</v>
       </c>
       <c r="B63" s="13">
         <v>90.336856999999995</v>
@@ -6626,8 +6007,8 @@
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
-        <v>93</v>
+      <c r="A64" s="19">
+        <v>39142</v>
       </c>
       <c r="B64" s="13">
         <v>90.651983999999999</v>
@@ -6707,8 +6088,8 @@
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
-        <v>94</v>
+      <c r="A65" s="19">
+        <v>39173</v>
       </c>
       <c r="B65" s="13">
         <v>90.813531999999995</v>
@@ -6788,8 +6169,8 @@
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
-        <v>95</v>
+      <c r="A66" s="19">
+        <v>39203</v>
       </c>
       <c r="B66" s="13">
         <v>91.260217999999995</v>
@@ -6869,8 +6250,8 @@
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
-        <v>96</v>
+      <c r="A67" s="19">
+        <v>39234</v>
       </c>
       <c r="B67" s="13">
         <v>91.688860000000005</v>
@@ -6950,8 +6331,8 @@
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
-        <v>97</v>
+      <c r="A68" s="19">
+        <v>39264</v>
       </c>
       <c r="B68" s="13">
         <v>92.124881999999999</v>
@@ -7031,8 +6412,8 @@
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
-        <v>98</v>
+      <c r="A69" s="19">
+        <v>39295</v>
       </c>
       <c r="B69" s="13">
         <v>92.251007999999999</v>
@@ -7112,8 +6493,8 @@
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
-        <v>99</v>
+      <c r="A70" s="19">
+        <v>39326</v>
       </c>
       <c r="B70" s="13">
         <v>92.816046</v>
@@ -7193,8 +6574,8 @@
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
-        <v>100</v>
+      <c r="A71" s="19">
+        <v>39356</v>
       </c>
       <c r="B71" s="13">
         <v>93.107501999999997</v>
@@ -7274,8 +6655,8 @@
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
-        <v>101</v>
+      <c r="A72" s="19">
+        <v>39387</v>
       </c>
       <c r="B72" s="13">
         <v>93.210858000000002</v>
@@ -7355,8 +6736,8 @@
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
-        <v>102</v>
+      <c r="A73" s="19">
+        <v>39417</v>
       </c>
       <c r="B73" s="13">
         <v>93.633201</v>
@@ -7436,8 +6817,8 @@
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
-        <v>103</v>
+      <c r="A74" s="19">
+        <v>39448</v>
       </c>
       <c r="B74" s="13">
         <v>93.84111</v>
@@ -7517,8 +6898,8 @@
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
-        <v>104</v>
+      <c r="A75" s="19">
+        <v>39479</v>
       </c>
       <c r="B75" s="13">
         <v>94.692266000000004</v>
@@ -7598,8 +6979,8 @@
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
-        <v>105</v>
+      <c r="A76" s="19">
+        <v>39508</v>
       </c>
       <c r="B76" s="13">
         <v>95.678818000000007</v>
@@ -7679,8 +7060,8 @@
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
-        <v>106</v>
+      <c r="A77" s="19">
+        <v>39539</v>
       </c>
       <c r="B77" s="13">
         <v>95.826374000000001</v>
@@ -7760,8 +7141,8 @@
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
-        <v>107</v>
+      <c r="A78" s="19">
+        <v>39569</v>
       </c>
       <c r="B78" s="13">
         <v>96.180443999999994</v>
@@ -7841,8 +7222,8 @@
       </c>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
-        <v>108</v>
+      <c r="A79" s="19">
+        <v>39600</v>
       </c>
       <c r="B79" s="13">
         <v>96.920651000000007</v>
@@ -7922,8 +7303,8 @@
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
-        <v>109</v>
+      <c r="A80" s="19">
+        <v>39630</v>
       </c>
       <c r="B80" s="13">
         <v>97.459018</v>
@@ -8003,8 +7384,8 @@
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
-        <v>110</v>
+      <c r="A81" s="19">
+        <v>39661</v>
       </c>
       <c r="B81" s="13">
         <v>98.034498999999997</v>
@@ -8084,8 +7465,8 @@
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>111</v>
+      <c r="A82" s="19">
+        <v>39692</v>
       </c>
       <c r="B82" s="13">
         <v>98.590552000000002</v>
@@ -8165,8 +7546,8 @@
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
-        <v>112</v>
+      <c r="A83" s="19">
+        <v>39722</v>
       </c>
       <c r="B83" s="13">
         <v>99.195038999999994</v>
@@ -8246,8 +7627,8 @@
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
-        <v>113</v>
+      <c r="A84" s="19">
+        <v>39753</v>
       </c>
       <c r="B84" s="13">
         <v>99.501575000000003</v>
@@ -8327,8 +7708,8 @@
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
-        <v>114</v>
+      <c r="A85" s="19">
+        <v>39783</v>
       </c>
       <c r="B85" s="13">
         <v>99.860003000000006</v>
@@ -8408,8 +7789,8 @@
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
-        <v>115</v>
+      <c r="A86" s="19">
+        <v>39814</v>
       </c>
       <c r="B86" s="13">
         <v>99.965633999999994</v>
@@ -8489,8 +7870,8 @@
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
-        <v>116</v>
+      <c r="A87" s="19">
+        <v>39845</v>
       </c>
       <c r="B87" s="13">
         <v>99.890872999999999</v>
@@ -8570,8 +7951,8 @@
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
-        <v>117</v>
+      <c r="A88" s="19">
+        <v>39873</v>
       </c>
       <c r="B88" s="13">
         <v>100.250699</v>
@@ -8651,8 +8032,8 @@
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
-        <v>118</v>
+      <c r="A89" s="19">
+        <v>39904</v>
       </c>
       <c r="B89" s="13">
         <v>100.269758</v>
@@ -8732,8 +8113,8 @@
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
-        <v>119</v>
+      <c r="A90" s="19">
+        <v>39934</v>
       </c>
       <c r="B90" s="13">
         <v>100.226636</v>
@@ -8813,8 +8194,8 @@
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A91" s="13" t="s">
-        <v>120</v>
+      <c r="A91" s="19">
+        <v>39965</v>
       </c>
       <c r="B91" s="13">
         <v>99.886290000000002</v>
@@ -8894,8 +8275,8 @@
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
-        <v>121</v>
+      <c r="A92" s="19">
+        <v>39995</v>
       </c>
       <c r="B92" s="13">
         <v>100.072766</v>
@@ -8975,8 +8356,8 @@
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
-        <v>122</v>
+      <c r="A93" s="19">
+        <v>40026</v>
       </c>
       <c r="B93" s="13">
         <v>99.865211000000002</v>
@@ -9056,8 +8437,8 @@
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="s">
-        <v>123</v>
+      <c r="A94" s="19">
+        <v>40057</v>
       </c>
       <c r="B94" s="13">
         <v>99.778142000000003</v>
@@ -9137,8 +8518,8 @@
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="s">
-        <v>124</v>
+      <c r="A95" s="19">
+        <v>40087</v>
       </c>
       <c r="B95" s="13">
         <v>99.900496000000004</v>
@@ -9218,8 +8599,8 @@
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
-        <v>125</v>
+      <c r="A96" s="19">
+        <v>40118</v>
       </c>
       <c r="B96" s="13">
         <v>99.788539999999998</v>
@@ -9299,8 +8680,8 @@
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="s">
-        <v>126</v>
+      <c r="A97" s="19">
+        <v>40148</v>
       </c>
       <c r="B97" s="13">
         <v>100.10497599999999</v>
@@ -9380,8 +8761,8 @@
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A98" s="13" t="s">
-        <v>127</v>
+      <c r="A98" s="19">
+        <v>40179</v>
       </c>
       <c r="B98" s="13">
         <v>100.401203</v>
@@ -9461,8 +8842,8 @@
       </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A99" s="13" t="s">
-        <v>128</v>
+      <c r="A99" s="19">
+        <v>40210</v>
       </c>
       <c r="B99" s="13">
         <v>100.725005</v>
@@ -9542,8 +8923,8 @@
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A100" s="13" t="s">
-        <v>129</v>
+      <c r="A100" s="19">
+        <v>40238</v>
       </c>
       <c r="B100" s="13">
         <v>101.007853</v>
@@ -9623,8 +9004,8 @@
       </c>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A101" s="13" t="s">
-        <v>130</v>
+      <c r="A101" s="19">
+        <v>40269</v>
       </c>
       <c r="B101" s="13">
         <v>101.033466</v>
@@ -9704,8 +9085,8 @@
       </c>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A102" s="13" t="s">
-        <v>131</v>
+      <c r="A102" s="19">
+        <v>40299</v>
       </c>
       <c r="B102" s="13">
         <v>101.27378400000001</v>
@@ -9785,8 +9166,8 @@
       </c>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A103" s="13" t="s">
-        <v>132</v>
+      <c r="A103" s="19">
+        <v>40330</v>
       </c>
       <c r="B103" s="13">
         <v>101.527828</v>
@@ -9866,8 +9247,8 @@
       </c>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A104" s="13" t="s">
-        <v>133</v>
+      <c r="A104" s="19">
+        <v>40360</v>
       </c>
       <c r="B104" s="13">
         <v>101.897344</v>
@@ -9947,8 +9328,8 @@
       </c>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A105" s="13" t="s">
-        <v>134</v>
+      <c r="A105" s="19">
+        <v>40391</v>
       </c>
       <c r="B105" s="13">
         <v>102.17095399999999</v>
@@ -10028,8 +9409,8 @@
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A106" s="13" t="s">
-        <v>135</v>
+      <c r="A106" s="19">
+        <v>40422</v>
       </c>
       <c r="B106" s="13">
         <v>102.138251</v>
@@ -10109,8 +9490,8 @@
       </c>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A107" s="13" t="s">
-        <v>136</v>
+      <c r="A107" s="19">
+        <v>40452</v>
       </c>
       <c r="B107" s="13">
         <v>101.993499</v>
@@ -10190,8 +9571,8 @@
       </c>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A108" s="13" t="s">
-        <v>137</v>
+      <c r="A108" s="19">
+        <v>40483</v>
       </c>
       <c r="B108" s="13">
         <v>102.00156200000001</v>
@@ -10271,8 +9652,8 @@
       </c>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A109" s="13" t="s">
-        <v>138</v>
+      <c r="A109" s="19">
+        <v>40513</v>
       </c>
       <c r="B109" s="13">
         <v>102.1836</v>
@@ -10352,8 +9733,8 @@
       </c>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A110" s="13" t="s">
-        <v>139</v>
+      <c r="A110" s="19">
+        <v>40544</v>
       </c>
       <c r="B110" s="13">
         <v>102.582562</v>
@@ -10433,8 +9814,8 @@
       </c>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A111" s="13" t="s">
-        <v>140</v>
+      <c r="A111" s="19">
+        <v>40575</v>
       </c>
       <c r="B111" s="13">
         <v>102.974757</v>
@@ -10514,8 +9895,8 @@
       </c>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A112" s="13" t="s">
-        <v>141</v>
+      <c r="A112" s="19">
+        <v>40603</v>
       </c>
       <c r="B112" s="13">
         <v>103.698122</v>
@@ -10595,8 +9976,8 @@
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A113" s="13" t="s">
-        <v>142</v>
+      <c r="A113" s="19">
+        <v>40634</v>
       </c>
       <c r="B113" s="13">
         <v>104.40421600000001</v>
@@ -10676,8 +10057,8 @@
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A114" s="13" t="s">
-        <v>143</v>
+      <c r="A114" s="19">
+        <v>40664</v>
       </c>
       <c r="B114" s="13">
         <v>104.37946599999999</v>
@@ -10757,8 +10138,8 @@
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A115" s="13" t="s">
-        <v>144</v>
+      <c r="A115" s="19">
+        <v>40695</v>
       </c>
       <c r="B115" s="13">
         <v>104.482951</v>
@@ -10838,8 +10219,8 @@
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A116" s="13" t="s">
-        <v>145</v>
+      <c r="A116" s="19">
+        <v>40725</v>
       </c>
       <c r="B116" s="13">
         <v>105.31145100000001</v>
@@ -10919,8 +10300,8 @@
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A117" s="13" t="s">
-        <v>146</v>
+      <c r="A117" s="19">
+        <v>40756</v>
       </c>
       <c r="B117" s="13">
         <v>105.59138799999999</v>
@@ -11000,8 +10381,8 @@
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A118" s="13" t="s">
-        <v>147</v>
+      <c r="A118" s="19">
+        <v>40787</v>
       </c>
       <c r="B118" s="13">
         <v>105.944258</v>
@@ -11081,8 +10462,8 @@
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A119" s="13" t="s">
-        <v>148</v>
+      <c r="A119" s="19">
+        <v>40817</v>
       </c>
       <c r="B119" s="13">
         <v>106.277824</v>
@@ -11162,8 +10543,8 @@
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A120" s="13" t="s">
-        <v>149</v>
+      <c r="A120" s="19">
+        <v>40848</v>
       </c>
       <c r="B120" s="13">
         <v>106.73633100000001</v>
@@ -11243,8 +10624,8 @@
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A121" s="13" t="s">
-        <v>150</v>
+      <c r="A121" s="19">
+        <v>40878</v>
       </c>
       <c r="B121" s="13">
         <v>107.02548899999999</v>
@@ -11324,8 +10705,8 @@
       </c>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A122" s="13" t="s">
-        <v>151</v>
+      <c r="A122" s="19">
+        <v>40909</v>
       </c>
       <c r="B122" s="13">
         <v>106.91704900000001</v>
@@ -11405,8 +10786,8 @@
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A123" s="13" t="s">
-        <v>152</v>
+      <c r="A123" s="19">
+        <v>40940</v>
       </c>
       <c r="B123" s="13">
         <v>107.264432</v>
@@ -11486,8 +10867,8 @@
       </c>
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A124" s="13" t="s">
-        <v>153</v>
+      <c r="A124" s="19">
+        <v>40969</v>
       </c>
       <c r="B124" s="13">
         <v>108.086095</v>
@@ -11567,8 +10948,8 @@
       </c>
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A125" s="13" t="s">
-        <v>154</v>
+      <c r="A125" s="19">
+        <v>41000</v>
       </c>
       <c r="B125" s="13">
         <v>108.660616</v>
@@ -11648,8 +11029,8 @@
       </c>
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A126" s="13" t="s">
-        <v>155</v>
+      <c r="A126" s="19">
+        <v>41030</v>
       </c>
       <c r="B126" s="13">
         <v>108.703277</v>
@@ -11729,8 +11110,8 @@
       </c>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A127" s="13" t="s">
-        <v>156</v>
+      <c r="A127" s="19">
+        <v>41061</v>
       </c>
       <c r="B127" s="13">
         <v>108.663388</v>
@@ -11810,8 +11191,8 @@
       </c>
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A128" s="13" t="s">
-        <v>157</v>
+      <c r="A128" s="19">
+        <v>41091</v>
       </c>
       <c r="B128" s="13">
         <v>108.76157499999999</v>
@@ -11891,8 +11272,8 @@
       </c>
     </row>
     <row r="129" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A129" s="13" t="s">
-        <v>158</v>
+      <c r="A129" s="19">
+        <v>41122</v>
       </c>
       <c r="B129" s="13">
         <v>109.31452</v>
@@ -11972,8 +11353,8 @@
       </c>
     </row>
     <row r="130" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A130" s="13" t="s">
-        <v>159</v>
+      <c r="A130" s="19">
+        <v>41153</v>
       </c>
       <c r="B130" s="13">
         <v>109.907777</v>
@@ -12053,8 +11434,8 @@
       </c>
     </row>
     <row r="131" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A131" s="13" t="s">
-        <v>160</v>
+      <c r="A131" s="19">
+        <v>41183</v>
       </c>
       <c r="B131" s="13">
         <v>109.728272</v>
@@ -12134,8 +11515,8 @@
       </c>
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A132" s="13" t="s">
-        <v>161</v>
+      <c r="A132" s="19">
+        <v>41214</v>
       </c>
       <c r="B132" s="13">
         <v>109.57743000000001</v>
@@ -12215,8 +11596,8 @@
       </c>
     </row>
     <row r="133" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A133" s="13" t="s">
-        <v>162</v>
+      <c r="A133" s="19">
+        <v>41244</v>
       </c>
       <c r="B133" s="13">
         <v>109.860989</v>
@@ -12296,8 +11677,8 @@
       </c>
     </row>
     <row r="134" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A134" s="13" t="s">
-        <v>163</v>
+      <c r="A134" s="19">
+        <v>41275</v>
       </c>
       <c r="B134" s="13">
         <v>109.98778799999999</v>
@@ -12377,8 +11758,8 @@
       </c>
     </row>
     <row r="135" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A135" s="13" t="s">
-        <v>164</v>
+      <c r="A135" s="19">
+        <v>41306</v>
       </c>
       <c r="B135" s="13">
         <v>109.891941</v>
@@ -12458,8 +11839,8 @@
       </c>
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A136" s="13" t="s">
-        <v>165</v>
+      <c r="A136" s="19">
+        <v>41334</v>
       </c>
       <c r="B136" s="13">
         <v>110.887497</v>
@@ -12539,8 +11920,8 @@
       </c>
     </row>
     <row r="137" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A137" s="13" t="s">
-        <v>166</v>
+      <c r="A137" s="19">
+        <v>41365</v>
       </c>
       <c r="B137" s="13">
         <v>111.167362</v>
@@ -12620,8 +12001,8 @@
       </c>
     </row>
     <row r="138" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A138" s="13" t="s">
-        <v>167</v>
+      <c r="A138" s="19">
+        <v>41395</v>
       </c>
       <c r="B138" s="13">
         <v>111.382566</v>
@@ -12701,8 +12082,8 @@
       </c>
     </row>
     <row r="139" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A139" s="13" t="s">
-        <v>168</v>
+      <c r="A139" s="19">
+        <v>41426</v>
       </c>
       <c r="B139" s="13">
         <v>111.67416299999999</v>
@@ -12782,8 +12163,8 @@
       </c>
     </row>
     <row r="140" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A140" s="13" t="s">
-        <v>169</v>
+      <c r="A140" s="19">
+        <v>41456</v>
       </c>
       <c r="B140" s="13">
         <v>112.286672</v>
@@ -12863,8 +12244,8 @@
       </c>
     </row>
     <row r="141" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A141" s="13" t="s">
-        <v>170</v>
+      <c r="A141" s="19">
+        <v>41487</v>
       </c>
       <c r="B141" s="13">
         <v>112.896282</v>
@@ -12944,8 +12325,8 @@
       </c>
     </row>
     <row r="142" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A142" s="13" t="s">
-        <v>171</v>
+      <c r="A142" s="19">
+        <v>41518</v>
       </c>
       <c r="B142" s="13">
         <v>113.019091</v>
@@ -13025,8 +12406,8 @@
       </c>
     </row>
     <row r="143" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A143" s="13" t="s">
-        <v>172</v>
+      <c r="A143" s="19">
+        <v>41548</v>
       </c>
       <c r="B143" s="13">
         <v>113.06234600000001</v>
@@ -13106,8 +12487,8 @@
       </c>
     </row>
     <row r="144" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A144" s="13" t="s">
-        <v>173</v>
+      <c r="A144" s="19">
+        <v>41579</v>
       </c>
       <c r="B144" s="13">
         <v>112.815595</v>
@@ -13187,8 +12568,8 @@
       </c>
     </row>
     <row r="145" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A145" s="13" t="s">
-        <v>174</v>
+      <c r="A145" s="19">
+        <v>41609</v>
       </c>
       <c r="B145" s="13">
         <v>113.002663</v>
@@ -13268,8 +12649,8 @@
       </c>
     </row>
     <row r="146" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A146" s="13" t="s">
-        <v>175</v>
+      <c r="A146" s="19">
+        <v>41640</v>
       </c>
       <c r="B146" s="13">
         <v>113.360708</v>
@@ -13349,8 +12730,8 @@
       </c>
     </row>
     <row r="147" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A147" s="13" t="s">
-        <v>176</v>
+      <c r="A147" s="19">
+        <v>41671</v>
       </c>
       <c r="B147" s="13">
         <v>114.04182299999999</v>
@@ -13430,8 +12811,8 @@
       </c>
     </row>
     <row r="148" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A148" s="13" t="s">
-        <v>177</v>
+      <c r="A148" s="19">
+        <v>41699</v>
       </c>
       <c r="B148" s="13">
         <v>114.633197</v>
@@ -13511,8 +12892,8 @@
       </c>
     </row>
     <row r="149" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A149" s="13" t="s">
-        <v>178</v>
+      <c r="A149" s="19">
+        <v>41730</v>
       </c>
       <c r="B149" s="13">
         <v>115.08396</v>
@@ -13592,8 +12973,8 @@
       </c>
     </row>
     <row r="150" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A150" s="13" t="s">
-        <v>179</v>
+      <c r="A150" s="19">
+        <v>41760</v>
       </c>
       <c r="B150" s="13">
         <v>115.342934</v>
@@ -13673,8 +13054,8 @@
       </c>
     </row>
     <row r="151" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A151" s="13" t="s">
-        <v>180</v>
+      <c r="A151" s="19">
+        <v>41791</v>
       </c>
       <c r="B151" s="13">
         <v>115.526534</v>
@@ -13754,8 +13135,8 @@
       </c>
     </row>
     <row r="152" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A152" s="13" t="s">
-        <v>181</v>
+      <c r="A152" s="19">
+        <v>41821</v>
       </c>
       <c r="B152" s="13">
         <v>116.027125</v>
@@ -13835,8 +13216,8 @@
       </c>
     </row>
     <row r="153" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A153" s="13" t="s">
-        <v>182</v>
+      <c r="A153" s="19">
+        <v>41852</v>
       </c>
       <c r="B153" s="13">
         <v>115.92778300000001</v>
@@ -13916,8 +13297,8 @@
       </c>
     </row>
     <row r="154" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A154" s="13" t="s">
-        <v>183</v>
+      <c r="A154" s="19">
+        <v>41883</v>
       </c>
       <c r="B154" s="13">
         <v>116.11385</v>
@@ -13997,8 +13378,8 @@
       </c>
     </row>
     <row r="155" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A155" s="13" t="s">
-        <v>184</v>
+      <c r="A155" s="19">
+        <v>41913</v>
       </c>
       <c r="B155" s="13">
         <v>116.553757</v>
@@ -14078,8 +13459,8 @@
       </c>
     </row>
     <row r="156" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A156" s="13" t="s">
-        <v>185</v>
+      <c r="A156" s="19">
+        <v>41944</v>
       </c>
       <c r="B156" s="13">
         <v>116.379555</v>
@@ -14159,8 +13540,8 @@
       </c>
     </row>
     <row r="157" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A157" s="13" t="s">
-        <v>186</v>
+      <c r="A157" s="19">
+        <v>41974</v>
       </c>
       <c r="B157" s="13">
         <v>116.645938</v>
@@ -14240,8 +13621,8 @@
       </c>
     </row>
     <row r="158" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A158" s="13" t="s">
-        <v>187</v>
+      <c r="A158" s="19">
+        <v>42005</v>
       </c>
       <c r="B158" s="13">
         <v>116.84458100000001</v>
@@ -14321,8 +13702,8 @@
       </c>
     </row>
     <row r="159" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A159" s="13" t="s">
-        <v>188</v>
+      <c r="A159" s="19">
+        <v>42036</v>
       </c>
       <c r="B159" s="13">
         <v>117.199168</v>
@@ -14402,8 +13783,8 @@
       </c>
     </row>
     <row r="160" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A160" s="13" t="s">
-        <v>189</v>
+      <c r="A160" s="19">
+        <v>42064</v>
       </c>
       <c r="B160" s="13">
         <v>118.095348</v>
@@ -14483,8 +13864,8 @@
       </c>
     </row>
     <row r="161" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A161" s="13" t="s">
-        <v>190</v>
+      <c r="A161" s="19">
+        <v>42095</v>
       </c>
       <c r="B161" s="13">
         <v>118.556518</v>
@@ -14564,8 +13945,8 @@
       </c>
     </row>
     <row r="162" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A162" s="13" t="s">
-        <v>191</v>
+      <c r="A162" s="19">
+        <v>42125</v>
       </c>
       <c r="B162" s="13">
         <v>119.22561</v>
@@ -14645,8 +14026,8 @@
       </c>
     </row>
     <row r="163" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A163" s="13" t="s">
-        <v>192</v>
+      <c r="A163" s="19">
+        <v>42156</v>
       </c>
       <c r="B163" s="13">
         <v>119.62184600000001</v>
@@ -14726,8 +14107,8 @@
       </c>
     </row>
     <row r="164" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A164" s="13" t="s">
-        <v>193</v>
+      <c r="A164" s="19">
+        <v>42186</v>
       </c>
       <c r="B164" s="13">
         <v>120.161085</v>
@@ -14807,8 +14188,8 @@
       </c>
     </row>
     <row r="165" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A165" s="13" t="s">
-        <v>194</v>
+      <c r="A165" s="19">
+        <v>42217</v>
       </c>
       <c r="B165" s="13">
         <v>120.61436399999999</v>
@@ -14888,8 +14269,8 @@
       </c>
     </row>
     <row r="166" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A166" s="13" t="s">
-        <v>195</v>
+      <c r="A166" s="19">
+        <v>42248</v>
       </c>
       <c r="B166" s="13">
         <v>120.64757899999999</v>
@@ -14969,8 +14350,8 @@
       </c>
     </row>
     <row r="167" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A167" s="13" t="s">
-        <v>196</v>
+      <c r="A167" s="19">
+        <v>42278</v>
       </c>
       <c r="B167" s="13">
         <v>120.819863</v>
@@ -15050,8 +14431,8 @@
       </c>
     </row>
     <row r="168" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A168" s="13" t="s">
-        <v>197</v>
+      <c r="A168" s="19">
+        <v>42309</v>
       </c>
       <c r="B168" s="13">
         <v>121.23557</v>
@@ -15131,8 +14512,8 @@
       </c>
     </row>
     <row r="169" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A169" s="13" t="s">
-        <v>198</v>
+      <c r="A169" s="19">
+        <v>42339</v>
       </c>
       <c r="B169" s="13">
         <v>121.775943</v>
@@ -15212,8 +14593,8 @@
       </c>
     </row>
     <row r="170" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A170" s="13" t="s">
-        <v>199</v>
+      <c r="A170" s="19">
+        <v>42370</v>
       </c>
       <c r="B170" s="13">
         <v>122.22958300000001</v>
@@ -15293,8 +14674,8 @@
       </c>
     </row>
     <row r="171" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A171" s="13" t="s">
-        <v>200</v>
+      <c r="A171" s="19">
+        <v>42401</v>
       </c>
       <c r="B171" s="13">
         <v>122.442374</v>
@@ -15374,8 +14755,8 @@
       </c>
     </row>
     <row r="172" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A172" s="13" t="s">
-        <v>201</v>
+      <c r="A172" s="19">
+        <v>42430</v>
       </c>
       <c r="B172" s="13">
         <v>123.174724</v>
@@ -15455,8 +14836,8 @@
       </c>
     </row>
     <row r="173" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A173" s="13" t="s">
-        <v>202</v>
+      <c r="A173" s="19">
+        <v>42461</v>
       </c>
       <c r="B173" s="13">
         <v>123.188774</v>
@@ -15536,8 +14917,8 @@
       </c>
     </row>
     <row r="174" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A174" s="13" t="s">
-        <v>203</v>
+      <c r="A174" s="19">
+        <v>42491</v>
       </c>
       <c r="B174" s="13">
         <v>123.446933</v>
@@ -15617,8 +14998,8 @@
       </c>
     </row>
     <row r="175" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A175" s="13" t="s">
-        <v>204</v>
+      <c r="A175" s="19">
+        <v>42522</v>
       </c>
       <c r="B175" s="13">
         <v>123.619152</v>
@@ -15698,8 +15079,8 @@
       </c>
     </row>
     <row r="176" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A176" s="13" t="s">
-        <v>205</v>
+      <c r="A176" s="19">
+        <v>42552</v>
       </c>
       <c r="B176" s="13">
         <v>123.720207</v>
@@ -15779,8 +15160,8 @@
       </c>
     </row>
     <row r="177" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A177" s="13" t="s">
-        <v>206</v>
+      <c r="A177" s="19">
+        <v>42583</v>
       </c>
       <c r="B177" s="13">
         <v>124.163479</v>
@@ -15860,8 +15241,8 @@
       </c>
     </row>
     <row r="178" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A178" s="13" t="s">
-        <v>207</v>
+      <c r="A178" s="19">
+        <v>42614</v>
       </c>
       <c r="B178" s="13">
         <v>124.419832</v>
@@ -15941,8 +15322,8 @@
       </c>
     </row>
     <row r="179" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A179" s="13" t="s">
-        <v>208</v>
+      <c r="A179" s="19">
+        <v>42644</v>
       </c>
       <c r="B179" s="13">
         <v>124.934127</v>
@@ -16022,8 +15403,8 @@
       </c>
     </row>
     <row r="180" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A180" s="13" t="s">
-        <v>209</v>
+      <c r="A180" s="19">
+        <v>42675</v>
       </c>
       <c r="B180" s="13">
         <v>125.296516</v>
@@ -16103,8 +15484,8 @@
       </c>
     </row>
     <row r="181" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A181" s="13" t="s">
-        <v>210</v>
+      <c r="A181" s="19">
+        <v>42705</v>
       </c>
       <c r="B181" s="13">
         <v>125.71525099999999</v>
@@ -16184,8 +15565,8 @@
       </c>
     </row>
     <row r="182" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A182" s="13" t="s">
-        <v>211</v>
+      <c r="A182" s="19">
+        <v>42736</v>
       </c>
       <c r="B182" s="13">
         <v>126.014256</v>
@@ -16265,8 +15646,8 @@
       </c>
     </row>
     <row r="183" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A183" s="13" t="s">
-        <v>212</v>
+      <c r="A183" s="19">
+        <v>42767</v>
       </c>
       <c r="B183" s="13">
         <v>126.421498</v>
@@ -16346,8 +15727,8 @@
       </c>
     </row>
     <row r="184" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A184" s="13" t="s">
-        <v>213</v>
+      <c r="A184" s="19">
+        <v>42795</v>
       </c>
       <c r="B184" s="13">
         <v>128.07074</v>
@@ -16427,8 +15808,8 @@
       </c>
     </row>
     <row r="185" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A185" s="13" t="s">
-        <v>214</v>
+      <c r="A185" s="19">
+        <v>42826</v>
       </c>
       <c r="B185" s="13">
         <v>127.74024900000001</v>
@@ -16508,8 +15889,8 @@
       </c>
     </row>
     <row r="186" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A186" s="13" t="s">
-        <v>215</v>
+      <c r="A186" s="19">
+        <v>42856</v>
       </c>
       <c r="B186" s="13">
         <v>127.199476</v>
@@ -16589,8 +15970,8 @@
       </c>
     </row>
     <row r="187" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A187" s="13" t="s">
-        <v>216</v>
+      <c r="A187" s="19">
+        <v>42887</v>
       </c>
       <c r="B187" s="13">
         <v>126.996976</v>
@@ -16670,8 +16051,8 @@
       </c>
     </row>
     <row r="188" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A188" s="13" t="s">
-        <v>217</v>
+      <c r="A188" s="19">
+        <v>42917</v>
       </c>
       <c r="B188" s="13">
         <v>127.24879300000001</v>
@@ -16751,8 +16132,8 @@
       </c>
     </row>
     <row r="189" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A189" s="13" t="s">
-        <v>218</v>
+      <c r="A189" s="19">
+        <v>42948</v>
       </c>
       <c r="B189" s="13">
         <v>128.10419200000001</v>
@@ -16832,8 +16213,8 @@
       </c>
     </row>
     <row r="190" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A190" s="13" t="s">
-        <v>219</v>
+      <c r="A190" s="19">
+        <v>42979</v>
       </c>
       <c r="B190" s="13">
         <v>128.08399</v>
@@ -16913,8 +16294,8 @@
       </c>
     </row>
     <row r="191" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A191" s="13" t="s">
-        <v>220</v>
+      <c r="A191" s="19">
+        <v>43009</v>
       </c>
       <c r="B191" s="13">
         <v>127.482962</v>
@@ -16994,8 +16375,8 @@
       </c>
     </row>
     <row r="192" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A192" s="13" t="s">
-        <v>221</v>
+      <c r="A192" s="19">
+        <v>43040</v>
       </c>
       <c r="B192" s="13">
         <v>127.23151799999999</v>
@@ -17075,8 +16456,8 @@
       </c>
     </row>
     <row r="193" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A193" s="13" t="s">
-        <v>222</v>
+      <c r="A193" s="19">
+        <v>43070</v>
       </c>
       <c r="B193" s="13">
         <v>127.431083</v>
@@ -17156,8 +16537,8 @@
       </c>
     </row>
     <row r="194" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A194" s="13" t="s">
-        <v>223</v>
+      <c r="A194" s="19">
+        <v>43101</v>
       </c>
       <c r="B194" s="13">
         <v>127.593452</v>
@@ -17237,8 +16618,8 @@
       </c>
     </row>
     <row r="195" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A195" s="13" t="s">
-        <v>224</v>
+      <c r="A195" s="19">
+        <v>43132</v>
       </c>
       <c r="B195" s="13">
         <v>127.912717</v>
@@ -17287,7 +16668,7 @@
         <v>4.8441982924803924</v>
       </c>
       <c r="Q195" s="13">
-        <f t="shared" ref="Q195:Q210" si="20">LN(I195)</f>
+        <f t="shared" ref="Q195:Q208" si="20">LN(I195)</f>
         <v>11.751038401980971</v>
       </c>
       <c r="R195" s="13">
@@ -17318,8 +16699,8 @@
       </c>
     </row>
     <row r="196" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A196" s="13" t="s">
-        <v>225</v>
+      <c r="A196" s="19">
+        <v>43160</v>
       </c>
       <c r="B196" s="13">
         <v>128.535811</v>
@@ -17388,7 +16769,7 @@
         <v>-1.3188686532689786E-2</v>
       </c>
       <c r="V196" s="13">
-        <f t="shared" ref="V196:V210" si="21">Q196-Q195</f>
+        <f t="shared" ref="V196:V208" si="21">Q196-Q195</f>
         <v>8.284288852539845E-3</v>
       </c>
       <c r="W196" s="13">
@@ -17399,8 +16780,8 @@
       </c>
     </row>
     <row r="197" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A197" s="13" t="s">
-        <v>226</v>
+      <c r="A197" s="19">
+        <v>43191</v>
       </c>
       <c r="B197" s="13">
         <v>128.359623</v>
@@ -17480,8 +16861,8 @@
       </c>
     </row>
     <row r="198" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A198" s="13" t="s">
-        <v>227</v>
+      <c r="A198" s="19">
+        <v>43221</v>
       </c>
       <c r="B198" s="13">
         <v>128.38331199999999</v>
@@ -17561,8 +16942,8 @@
       </c>
     </row>
     <row r="199" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A199" s="13" t="s">
-        <v>228</v>
+      <c r="A199" s="19">
+        <v>43252</v>
       </c>
       <c r="B199" s="13">
         <v>128.81218699999999</v>
@@ -17642,8 +17023,8 @@
       </c>
     </row>
     <row r="200" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A200" s="13" t="s">
-        <v>229</v>
+      <c r="A200" s="19">
+        <v>43282</v>
       </c>
       <c r="B200" s="13">
         <v>129.305262</v>
@@ -17723,8 +17104,8 @@
       </c>
     </row>
     <row r="201" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A201" s="13" t="s">
-        <v>230</v>
+      <c r="A201" s="19">
+        <v>43313</v>
       </c>
       <c r="B201" s="13">
         <v>129.47564399999999</v>
@@ -17804,8 +17185,8 @@
       </c>
     </row>
     <row r="202" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A202" s="13" t="s">
-        <v>231</v>
+      <c r="A202" s="19">
+        <v>43344</v>
       </c>
       <c r="B202" s="13">
         <v>129.72382500000001</v>
@@ -17885,8 +17266,8 @@
       </c>
     </row>
     <row r="203" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A203" s="13" t="s">
-        <v>232</v>
+      <c r="A203" s="19">
+        <v>43374</v>
       </c>
       <c r="B203" s="13">
         <v>129.82978800000001</v>
@@ -17966,8 +17347,8 @@
       </c>
     </row>
     <row r="204" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A204" s="13" t="s">
-        <v>233</v>
+      <c r="A204" s="19">
+        <v>43405</v>
       </c>
       <c r="B204" s="13">
         <v>129.98874900000001</v>
@@ -18047,8 +17428,8 @@
       </c>
     </row>
     <row r="205" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A205" s="13" t="s">
-        <v>234</v>
+      <c r="A205" s="19">
+        <v>43435</v>
       </c>
       <c r="B205" s="13">
         <v>130.22503900000001</v>
@@ -18128,8 +17509,8 @@
       </c>
     </row>
     <row r="206" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A206" s="13" t="s">
-        <v>235</v>
+      <c r="A206" s="19">
+        <v>43466</v>
       </c>
       <c r="B206" s="13">
         <v>130.31011799999999</v>
@@ -18209,8 +17590,8 @@
       </c>
     </row>
     <row r="207" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A207" s="13" t="s">
-        <v>236</v>
+      <c r="A207" s="19">
+        <v>43497</v>
       </c>
       <c r="B207" s="13">
         <v>130.475301</v>
@@ -18290,8 +17671,8 @@
       </c>
     </row>
     <row r="208" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A208" s="13" t="s">
-        <v>237</v>
+      <c r="A208" s="19">
+        <v>43525</v>
       </c>
       <c r="B208" s="13">
         <v>131.424577</v>
@@ -18368,32 +17749,6 @@
       </c>
       <c r="X208" s="13">
         <v>-8.3393413131313709E-2</v>
-      </c>
-    </row>
-    <row r="209" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I209" s="17" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q209" s="13" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V209" s="13" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="210" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I210" s="17" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q210" s="13" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V210" s="13" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>

--- a/macroeconomic_var.xlsx
+++ b/macroeconomic_var.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
   </bookViews>
   <sheets>
-    <sheet name="TEST LJUNG-BOX" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
